--- a/01Все товары (2).xlsx
+++ b/01Все товары (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="580">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">010-02904-11 GARMIN FENIX 8 47 MM AMOLED SAPPHIRE TITANIUM SPARK ORANGE🇪🇺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
   </si>
   <si>
     <t xml:space="preserve">Apple iPhone 17 256GB</t>
@@ -1860,8 +1863,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1954,1593 +1961,1593 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A680" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A692" activeCellId="0" sqref="A692"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A233" activeCellId="0" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>29300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>41100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>41100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>21600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>21400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>56200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>43500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>38800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>62500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>16100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>29200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>29700</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>29700</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>29700</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>30600</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>50500</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>69500</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>59900</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>59900</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>59900</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>66500</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>66500</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>23200</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>24700</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>24800</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>83500</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>16800</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>6500</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>6500</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>6600</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>6600</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>6600</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>9900</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>9900</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>9900</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>13800</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>17100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>17100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>19100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>21700</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>21700</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>21700</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>21700</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>25700</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>25700</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>25700</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>31800</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>35800</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>35800</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>35800</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>35600</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>35300</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>35300</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>37000</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>44000</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>44400</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>44000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>42200</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>51800</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>50200</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>49300</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>49000</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>48200</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>54500</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>51000</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>54500</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>54000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>51000</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>67000</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>66800</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>66800</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>78500</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>78500</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>78700</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>78500</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>78800</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>78500</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>59100</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>63600</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>64800</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>107500</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>116000</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>114500</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>115000</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>115000</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>115000</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>9800</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>15500</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>15500</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>15500</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>15500</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>19600</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>22600</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>24800</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>24800</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>4700</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>16200</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>16200</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>8400</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>8200</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>8200</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>18700</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>18400</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>26500</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>24500</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>24000</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>33900</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>9600</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>9600</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>9600</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>10400</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>10400</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>12800</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>14600</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>14800</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>14500</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>17800</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>16400</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>16400</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>23000</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>23000</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>27400</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>13200</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>13200</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186" s="1" t="n">
         <v>18200</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187" s="1" t="n">
         <v>26300</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188" s="1" t="n">
         <v>26300</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>31600</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193" s="1" t="n">
         <v>51000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194" s="1" t="n">
         <v>32600</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195" s="1" t="n">
         <v>32600</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196" s="1" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>25800</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
         <v>10100</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199" s="1" t="n">
         <v>11500</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200" s="1" t="n">
         <v>16400</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201" s="1" t="n">
         <v>22100</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
         <v>26100</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203" s="1" t="n">
         <v>26100</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204" s="1" t="n">
         <v>26100</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205" s="1" t="n">
         <v>8200</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
         <v>8200</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207" s="1" t="n">
         <v>26500</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208" s="1" t="n">
         <v>26500</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209" s="1" t="n">
         <v>19900</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
         <v>19900</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
         <v>6400</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215" s="1" t="n">
         <v>6400</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216" s="1" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220" s="1" t="n">
         <v>17900</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221" s="1" t="n">
         <v>19900</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222" s="1" t="n">
         <v>19900</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223" s="1" t="n">
         <v>22500</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227" s="1" t="n">
         <v>56000</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228" s="1" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229" s="1" t="n">
         <v>76500</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
+    <row r="231" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3548,2995 +3555,3000 @@
       <c r="A233" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B233" s="0" t="n">
+    </row>
+    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B234" s="1" t="n">
         <v>64500</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B234" s="0" t="n">
+    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="1" t="n">
         <v>64500</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B235" s="0" t="n">
+    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B236" s="1" t="n">
         <v>64100</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B236" s="0" t="n">
+    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B237" s="1" t="n">
         <v>64500</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B237" s="0" t="n">
+    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B238" s="1" t="n">
         <v>64500</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B238" s="0" t="n">
+    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B239" s="1" t="n">
         <v>66000</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B239" s="0" t="n">
+    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B240" s="1" t="n">
         <v>65200</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B240" s="0" t="n">
+    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B241" s="1" t="n">
         <v>65600</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B241" s="0" t="n">
+    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B242" s="1" t="n">
         <v>66800</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B242" s="0" t="n">
+    <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B243" s="1" t="n">
         <v>67000</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B245" s="0" t="n">
+    </row>
+    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B246" s="1" t="n">
         <v>81500</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B246" s="0" t="n">
+    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B247" s="1" t="n">
         <v>82500</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B247" s="0" t="n">
+    <row r="248" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B248" s="1" t="n">
         <v>82500</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B250" s="0" t="n">
+    </row>
+    <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="1" t="n">
         <v>80000</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B251" s="0" t="n">
+    <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B252" s="1" t="n">
         <v>69400</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B252" s="0" t="n">
+    <row r="253" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B253" s="1" t="n">
         <v>72200</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B253" s="0" t="n">
+    <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B254" s="1" t="n">
         <v>75000</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B256" s="0" t="n">
+    </row>
+    <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B257" s="1" t="n">
         <v>83200</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B259" s="0" t="n">
+    </row>
+    <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B260" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B260" s="0" t="n">
+    <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B261" s="1" t="n">
         <v>96200</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B261" s="0" t="n">
+    <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B262" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B262" s="0" t="n">
+    <row r="263" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B263" s="1" t="n">
         <v>100200</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="0" t="n">
+    </row>
+    <row r="266" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B266" s="1" t="n">
         <v>89000</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B266" s="0" t="n">
+    <row r="267" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B267" s="1" t="n">
         <v>88300</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B267" s="0" t="n">
+    <row r="268" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B268" s="1" t="n">
         <v>92000</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B268" s="0" t="n">
+    <row r="269" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269" s="1" t="n">
         <v>97200</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B269" s="0" t="n">
+    <row r="270" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B270" s="1" t="n">
         <v>96200</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B270" s="0" t="n">
+    <row r="271" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B271" s="1" t="n">
         <v>97000</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B273" s="0" t="n">
+    </row>
+    <row r="274" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B274" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B274" s="0" t="n">
+    <row r="275" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B275" s="1" t="n">
         <v>99500</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B275" s="0" t="n">
+    <row r="276" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B276" s="1" t="n">
         <v>106000</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B276" s="0" t="n">
+    <row r="277" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B277" s="1" t="n">
         <v>115000</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B277" s="0" t="n">
+    <row r="278" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B278" s="1" t="n">
         <v>112600</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B278" s="0" t="n">
+    <row r="279" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B279" s="1" t="n">
         <v>115200</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B281" s="0" t="n">
+    </row>
+    <row r="282" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B282" s="1" t="n">
         <v>120000</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B282" s="0" t="n">
+    <row r="283" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B283" s="1" t="n">
         <v>117200</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B283" s="0" t="n">
+    <row r="284" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B284" s="1" t="n">
         <v>124000</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B284" s="0" t="n">
+    <row r="285" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B285" s="1" t="n">
         <v>132500</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B285" s="0" t="n">
+    <row r="286" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B286" s="1" t="n">
         <v>129000</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B286" s="0" t="n">
+    <row r="287" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B287" s="1" t="n">
         <v>137000</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B289" s="0" t="n">
+    </row>
+    <row r="290" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B290" s="1" t="n">
         <v>97700</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B290" s="0" t="n">
+    <row r="291" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" s="1" t="n">
         <v>97000</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B291" s="0" t="n">
+    <row r="292" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B292" s="1" t="n">
         <v>99000</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B292" s="0" t="n">
+    <row r="293" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B293" s="1" t="n">
         <v>106800</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B293" s="0" t="n">
+    <row r="294" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B294" s="1" t="n">
         <v>104600</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B294" s="0" t="n">
+    <row r="295" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B295" s="1" t="n">
         <v>107600</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B297" s="0" t="n">
+    </row>
+    <row r="298" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B298" s="1" t="n">
         <v>110500</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B298" s="0" t="n">
+    <row r="299" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B299" s="1" t="n">
         <v>108000</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B299" s="0" t="n">
+    <row r="300" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B300" s="1" t="n">
         <v>124000</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B300" s="0" t="n">
+    <row r="301" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B301" s="1" t="n">
         <v>124900</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B301" s="0" t="n">
+    <row r="302" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B302" s="1" t="n">
         <v>120600</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B302" s="0" t="n">
+    <row r="303" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B303" s="1" t="n">
         <v>123700</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B305" s="0" t="n">
+    </row>
+    <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B306" s="1" t="n">
         <v>124200</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B306" s="0" t="n">
+    <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B307" s="1" t="n">
         <v>122800</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B307" s="0" t="n">
+    <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B308" s="1" t="n">
         <v>128000</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B308" s="0" t="n">
+    <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B309" s="1" t="n">
         <v>139200</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B309" s="0" t="n">
+    <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B310" s="1" t="n">
         <v>137700</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B310" s="0" t="n">
+    <row r="311" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B311" s="1" t="n">
         <v>141000</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B313" s="0" t="n">
+    </row>
+    <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B314" s="1" t="n">
         <v>146300</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B314" s="0" t="n">
+    <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B315" s="1" t="n">
         <v>146400</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B315" s="0" t="n">
+    <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B316" s="1" t="n">
         <v>148200</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B316" s="0" t="n">
+    <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B317" s="1" t="n">
         <v>171700</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B317" s="0" t="n">
+    <row r="318" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B318" s="1" t="n">
         <v>174500</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B321" s="0" t="n">
+    </row>
+    <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B322" s="1" t="n">
         <v>40000</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B322" s="0" t="n">
+    <row r="323" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B323" s="1" t="n">
         <v>39200</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B325" s="0" t="n">
+    </row>
+    <row r="326" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B326" s="1" t="n">
         <v>50900</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B328" s="0" t="n">
+    </row>
+    <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B329" s="1" t="n">
         <v>56500</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B329" s="0" t="n">
+    <row r="330" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B330" s="1" t="n">
         <v>56500</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="0" t="n">
+    </row>
+    <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B333" s="1" t="n">
         <v>52800</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B333" s="0" t="n">
+    <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B334" s="1" t="n">
         <v>52700</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B334" s="0" t="n">
+    <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B335" s="1" t="n">
         <v>52900</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B335" s="0" t="n">
+    <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B336" s="1" t="n">
         <v>52800</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B336" s="0" t="n">
+    <row r="337" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B337" s="1" t="n">
         <v>52900</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B339" s="0" t="n">
+    </row>
+    <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B340" s="1" t="n">
         <v>56700</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B340" s="0" t="n">
+    <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B341" s="1" t="n">
         <v>58000</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B341" s="0" t="n">
+    <row r="342" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B342" s="1" t="n">
         <v>58000</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B342" s="0" t="n">
+    <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B343" s="1" t="n">
         <v>58200</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B343" s="0" t="n">
+    <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B344" s="1" t="n">
         <v>58700</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B344" s="0" t="n">
+    <row r="345" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B345" s="1" t="n">
         <v>59500</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B347" s="0" t="n">
+    </row>
+    <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B348" s="1" t="n">
         <v>62200</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B348" s="0" t="n">
+    <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B349" s="1" t="n">
         <v>62200</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B349" s="0" t="n">
+    <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B350" s="1" t="n">
         <v>62200</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B350" s="0" t="n">
+    <row r="351" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B351" s="1" t="n">
         <v>62200</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B351" s="0" t="n">
+    <row r="352" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B352" s="1" t="n">
         <v>62200</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B352" s="0" t="n">
+    <row r="353" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B353" s="1" t="n">
         <v>67400</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B353" s="0" t="n">
+    <row r="354" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B354" s="1" t="n">
         <v>67400</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B354" s="0" t="n">
+    <row r="355" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B355" s="1" t="n">
         <v>68500</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B355" s="0" t="n">
+    <row r="356" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B356" s="1" t="n">
         <v>68200</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B358" s="0" t="n">
+    </row>
+    <row r="359" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B359" s="1" t="n">
         <v>63000</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B359" s="0" t="n">
+    <row r="360" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B360" s="1" t="n">
         <v>61000</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B360" s="0" t="n">
+    <row r="361" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B361" s="1" t="n">
         <v>58200</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B361" s="0" t="n">
+    <row r="362" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B362" s="1" t="n">
         <v>57000</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B362" s="0" t="n">
+    <row r="363" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B363" s="1" t="n">
         <v>57000</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B365" s="0" t="n">
+    </row>
+    <row r="366" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B366" s="1" t="n">
         <v>67700</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B366" s="0" t="n">
+    <row r="367" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B367" s="1" t="n">
         <v>67700</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B367" s="0" t="n">
+    <row r="368" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B368" s="1" t="n">
         <v>68100</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B368" s="0" t="n">
+    <row r="369" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B369" s="1" t="n">
         <v>67700</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B369" s="0" t="n">
+    <row r="370" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B370" s="1" t="n">
         <v>68000</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B372" s="0" t="n">
+    </row>
+    <row r="373" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B373" s="1" t="n">
         <v>68200</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B373" s="0" t="n">
+    <row r="374" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B374" s="1" t="n">
         <v>68900</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="3" t="s">
+    <row r="375" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>80400</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B374" s="0" t="n">
-        <v>68400</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="3" t="s">
+      <c r="B379" s="1" t="n">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B375" s="0" t="n">
-        <v>74200</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B376" s="0" t="n">
-        <v>76500</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B377" s="0" t="n">
-        <v>80400</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B378" s="0" t="n">
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B379" s="0" t="n">
+      <c r="B380" s="1" t="n">
         <v>80500</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B382" s="0" t="n">
+    </row>
+    <row r="383" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B383" s="1" t="n">
         <v>76000</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B383" s="0" t="n">
+    <row r="384" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B384" s="1" t="n">
         <v>68100</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B384" s="0" t="n">
+    <row r="385" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B385" s="1" t="n">
         <v>70500</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B385" s="0" t="n">
+    <row r="386" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B386" s="1" t="n">
         <v>68100</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B386" s="0" t="n">
+    <row r="387" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B387" s="1" t="n">
         <v>80200</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B387" s="0" t="n">
+    <row r="388" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B388" s="1" t="n">
         <v>88000</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B388" s="0" t="n">
+    <row r="389" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B389" s="1" t="n">
         <v>80200</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B391" s="0" t="n">
+    </row>
+    <row r="392" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B392" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B392" s="0" t="n">
+    <row r="393" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B393" s="1" t="n">
         <v>97000</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B393" s="0" t="n">
+    <row r="394" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B394" s="1" t="n">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B396" s="0" t="n">
+    </row>
+    <row r="397" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B397" s="1" t="n">
         <v>105000</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B399" s="0" t="n">
+    </row>
+    <row r="400" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B400" s="1" t="n">
         <v>124000</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B400" s="0" t="n">
+    <row r="401" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B401" s="1" t="n">
         <v>122000</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B401" s="0" t="n">
+    <row r="402" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B402" s="1" t="n">
         <v>122000</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B402" s="0" t="n">
+    <row r="403" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B403" s="1" t="n">
         <v>106200</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B403" s="0" t="n">
+    <row r="404" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B404" s="1" t="n">
         <v>106200</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B406" s="0" t="n">
+    </row>
+    <row r="407" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B407" s="1" t="n">
         <v>99500</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B407" s="0" t="n">
+    <row r="408" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B408" s="1" t="n">
         <v>86400</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B408" s="0" t="n">
+    <row r="409" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B409" s="1" t="n">
         <v>103000</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B409" s="0" t="n">
+    <row r="410" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B410" s="1" t="n">
         <v>102000</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B412" s="0" t="n">
+    </row>
+    <row r="413" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B413" s="1" t="n">
         <v>105000</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B413" s="0" t="n">
+    <row r="414" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B414" s="1" t="n">
         <v>112200</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B416" s="0" t="n">
+    </row>
+    <row r="417" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B417" s="1" t="n">
         <v>119500</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B417" s="0" t="n">
+    <row r="418" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B418" s="1" t="n">
         <v>119500</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B418" s="0" t="n">
+    <row r="419" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B419" s="1" t="n">
         <v>120000</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B419" s="0" t="n">
+    <row r="420" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B420" s="1" t="n">
         <v>121100</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B420" s="0" t="n">
+    <row r="421" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B421" s="1" t="n">
         <v>121100</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B424" s="0" t="n">
+    </row>
+    <row r="425" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B425" s="1" t="n">
         <v>36400</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B425" s="0" t="n">
+    <row r="426" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B426" s="1" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B426" s="0" t="n">
+    <row r="427" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B427" s="1" t="n">
         <v>39500</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B429" s="0" t="n">
+    </row>
+    <row r="430" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B430" s="1" t="n">
         <v>44500</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B432" s="0" t="n">
+    </row>
+    <row r="433" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B433" s="1" t="n">
         <v>69800</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B435" s="0" t="n">
+    </row>
+    <row r="436" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B436" s="1" t="n">
         <v>34200</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B436" s="0" t="n">
+    <row r="437" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B437" s="1" t="n">
         <v>40900</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B437" s="0" t="n">
+    <row r="438" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B438" s="1" t="n">
         <v>41200</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B438" s="0" t="n">
+    <row r="439" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B439" s="1" t="n">
         <v>44500</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B441" s="0" t="n">
+    </row>
+    <row r="442" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B442" s="1" t="n">
         <v>38300</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="3" t="s">
+    <row r="443" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B442" s="0" t="n">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B443" s="0" t="n">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B444" s="0" t="n">
-        <v>46500</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B445" s="0" t="n">
+      <c r="B446" s="1" t="n">
         <v>42300</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B448" s="0" t="n">
+    </row>
+    <row r="449" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B449" s="1" t="n">
         <v>42000</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="3" t="s">
+    <row r="450" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>46700</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B449" s="0" t="n">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B450" s="0" t="n">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B451" s="0" t="n">
-        <v>38700</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="3" t="s">
+      <c r="B457" s="1" t="n">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B452" s="0" t="n">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B453" s="0" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B454" s="0" t="n">
-        <v>46700</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B455" s="0" t="n">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B456" s="0" t="n">
-        <v>47700</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B457" s="0" t="n">
-        <v>48500</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B458" s="0" t="n">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B459" s="0" t="n">
+      <c r="B460" s="1" t="n">
         <v>44100</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B462" s="0" t="n">
+    </row>
+    <row r="463" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B463" s="1" t="n">
         <v>40200</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B463" s="0" t="n">
+    <row r="464" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B464" s="1" t="n">
         <v>42000</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B464" s="0" t="n">
+    <row r="465" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B465" s="1" t="n">
         <v>41500</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B467" s="0" t="n">
+    </row>
+    <row r="468" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B468" s="1" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B468" s="0" t="n">
+    <row r="469" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B469" s="1" t="n">
         <v>44900</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B471" s="0" t="n">
+    </row>
+    <row r="472" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B472" s="1" t="n">
         <v>44900</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B472" s="0" t="n">
+    <row r="473" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B473" s="1" t="n">
         <v>53000</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B473" s="0" t="n">
+    <row r="474" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B474" s="1" t="n">
         <v>53000</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B474" s="0" t="n">
+    <row r="475" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B475" s="1" t="n">
         <v>53000</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B475" s="0" t="n">
+    <row r="476" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B476" s="1" t="n">
         <v>49000</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B476" s="0" t="n">
+    <row r="477" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B477" s="1" t="n">
         <v>46600</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B479" s="0" t="n">
+    </row>
+    <row r="480" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B480" s="1" t="n">
         <v>44200</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B480" s="0" t="n">
+    <row r="481" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B481" s="1" t="n">
         <v>44200</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B481" s="0" t="n">
+    <row r="482" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B482" s="1" t="n">
         <v>45200</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B482" s="0" t="n">
+    <row r="483" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B483" s="1" t="n">
         <v>42700</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B485" s="0" t="n">
+    </row>
+    <row r="486" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B486" s="1" t="n">
         <v>51400</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B486" s="0" t="n">
+    <row r="487" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B487" s="1" t="n">
         <v>51400</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B487" s="0" t="n">
+    <row r="488" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B488" s="1" t="n">
         <v>51400</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B490" s="0" t="n">
+    </row>
+    <row r="491" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B491" s="1" t="n">
         <v>55200</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="3" t="s">
+    <row r="492" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>59700</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B491" s="0" t="n">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B492" s="0" t="n">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B493" s="0" t="n">
-        <v>54200</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B494" s="0" t="n">
-        <v>65500</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B495" s="0" t="n">
-        <v>59700</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B496" s="0" t="n">
-        <v>60700</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B497" s="0" t="n">
+      <c r="B498" s="1" t="n">
         <v>63000</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B500" s="0" t="n">
+    </row>
+    <row r="501" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B501" s="1" t="n">
         <v>48500</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B501" s="0" t="n">
+    <row r="502" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B502" s="1" t="n">
         <v>48000</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B502" s="0" t="n">
+    <row r="503" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B503" s="1" t="n">
         <v>49100</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B503" s="0" t="n">
+    <row r="504" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B504" s="1" t="n">
         <v>49000</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B506" s="0" t="n">
+    </row>
+    <row r="507" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B507" s="1" t="n">
         <v>61000</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B507" s="0" t="n">
+    <row r="508" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B508" s="1" t="n">
         <v>54100</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B508" s="0" t="n">
+    <row r="509" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B509" s="1" t="n">
         <v>54100</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B509" s="0" t="n">
+    <row r="510" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B510" s="1" t="n">
         <v>52000</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B512" s="0" t="n">
+    </row>
+    <row r="513" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B513" s="1" t="n">
         <v>68500</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B513" s="0" t="n">
+    <row r="514" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B514" s="1" t="n">
         <v>57700</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B514" s="0" t="n">
+    <row r="515" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B515" s="1" t="n">
         <v>58200</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B515" s="0" t="n">
+    <row r="516" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B516" s="1" t="n">
         <v>63500</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B516" s="0" t="n">
+    <row r="517" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B517" s="1" t="n">
         <v>54900</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B519" s="0" t="n">
+    </row>
+    <row r="520" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B520" s="1" t="n">
         <v>63100</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B520" s="0" t="n">
+    <row r="521" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B521" s="1" t="n">
         <v>63100</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B521" s="0" t="n">
+    <row r="522" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B522" s="1" t="n">
         <v>63100</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B522" s="0" t="n">
+    <row r="523" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B523" s="1" t="n">
         <v>63100</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B525" s="0" t="n">
+    </row>
+    <row r="526" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B526" s="1" t="n">
         <v>70200</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B526" s="0" t="n">
+    <row r="527" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B527" s="1" t="n">
         <v>70200</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B527" s="0" t="n">
+    <row r="528" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B528" s="1" t="n">
         <v>70200</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B530" s="0" t="n">
+    </row>
+    <row r="531" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B531" s="1" t="n">
         <v>77900</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B531" s="0" t="n">
+    <row r="532" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B532" s="1" t="n">
         <v>77900</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B532" s="0" t="n">
+    <row r="533" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B533" s="1" t="n">
         <v>77900</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B533" s="0" t="n">
+    <row r="534" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B534" s="1" t="n">
         <v>77900</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B536" s="0" t="n">
+    </row>
+    <row r="537" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B537" s="1" t="n">
         <v>82000</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B537" s="0" t="n">
+    <row r="538" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B538" s="1" t="n">
         <v>82000</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B540" s="0" t="n">
+    </row>
+    <row r="541" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B541" s="1" t="n">
         <v>76000</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B541" s="0" t="n">
+    <row r="542" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B542" s="1" t="n">
         <v>74800</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B542" s="0" t="n">
+    <row r="543" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B543" s="1" t="n">
         <v>74800</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B543" s="0" t="n">
+    <row r="544" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B544" s="1" t="n">
         <v>74800</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B546" s="0" t="n">
+    </row>
+    <row r="547" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B547" s="1" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B547" s="0" t="n">
+    <row r="548" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B548" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B548" s="0" t="n">
+    <row r="549" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B549" s="1" t="n">
         <v>6600</v>
-      </c>
-    </row>
-    <row r="550" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B551" s="0" t="n">
+    </row>
+    <row r="552" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B552" s="1" t="n">
         <v>7400</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B552" s="0" t="n">
+    <row r="553" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B553" s="1" t="n">
         <v>10600</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B553" s="0" t="n">
+    <row r="554" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B554" s="1" t="n">
         <v>13500</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B554" s="0" t="n">
+    <row r="555" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B555" s="1" t="n">
         <v>17300</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B555" s="0" t="n">
+    <row r="556" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B556" s="1" t="n">
         <v>37500</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B556" s="0" t="n">
+    <row r="557" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B557" s="1" t="n">
         <v>37500</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B557" s="0" t="n">
+    <row r="558" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B558" s="1" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B558" s="0" t="n">
+    <row r="559" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B559" s="1" t="n">
         <v>36700</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B559" s="0" t="n">
+    <row r="560" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B560" s="1" t="n">
         <v>36700</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B560" s="0" t="n">
+    <row r="561" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B561" s="1" t="n">
         <v>42000</v>
-      </c>
-    </row>
-    <row r="562" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B563" s="0" t="n">
+    </row>
+    <row r="564" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B564" s="1" t="n">
         <v>20300</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B564" s="0" t="n">
+    <row r="565" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B565" s="1" t="n">
         <v>21200</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B565" s="0" t="n">
+    <row r="566" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B566" s="1" t="n">
         <v>25000</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B566" s="0" t="n">
+    <row r="567" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B567" s="1" t="n">
         <v>22800</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B567" s="0" t="n">
+    <row r="568" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B568" s="1" t="n">
         <v>23500</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B568" s="0" t="n">
+    <row r="569" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B569" s="1" t="n">
         <v>23700</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B569" s="0" t="n">
+    <row r="570" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B570" s="1" t="n">
         <v>25500</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B570" s="0" t="n">
+    <row r="571" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B571" s="1" t="n">
         <v>23700</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B571" s="0" t="n">
+    <row r="572" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B572" s="1" t="n">
         <v>23000</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B572" s="0" t="n">
+    <row r="573" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B573" s="1" t="n">
         <v>24500</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B573" s="0" t="n">
+    <row r="574" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B574" s="1" t="n">
         <v>24900</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B574" s="0" t="n">
+    <row r="575" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B575" s="1" t="n">
         <v>25000</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B575" s="0" t="n">
+    <row r="576" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B576" s="1" t="n">
         <v>25000</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B576" s="0" t="n">
+    <row r="577" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B577" s="1" t="n">
         <v>25800</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B577" s="0" t="n">
+    <row r="578" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B578" s="1" t="n">
         <v>25300</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B578" s="0" t="n">
+    <row r="579" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B579" s="1" t="n">
         <v>25000</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B579" s="0" t="n">
+    <row r="580" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B580" s="1" t="n">
         <v>27500</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B580" s="0" t="n">
+    <row r="581" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B581" s="1" t="n">
         <v>27200</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B581" s="0" t="n">
+    <row r="582" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B582" s="1" t="n">
         <v>27200</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B582" s="0" t="n">
+    <row r="583" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B583" s="1" t="n">
         <v>27800</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B583" s="0" t="n">
+    <row r="584" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B584" s="1" t="n">
         <v>44700</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B584" s="0" t="n">
+    <row r="585" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B585" s="1" t="n">
         <v>44700</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B585" s="0" t="n">
+    <row r="586" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B586" s="1" t="n">
         <v>45400</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B586" s="0" t="n">
+    <row r="587" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B587" s="1" t="n">
         <v>43500</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B587" s="0" t="n">
+    <row r="588" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B588" s="1" t="n">
         <v>53000</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B588" s="0" t="n">
+    <row r="589" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B589" s="1" t="n">
         <v>53000</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B589" s="0" t="n">
+    <row r="590" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B590" s="1" t="n">
         <v>48500</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B590" s="0" t="n">
+    <row r="591" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B591" s="1" t="n">
         <v>56800</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B591" s="0" t="n">
+    <row r="592" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B592" s="1" t="n">
         <v>68500</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B594" s="0" t="n">
+    </row>
+    <row r="595" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B595" s="1" t="n">
         <v>35500</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B595" s="0" t="n">
+    <row r="596" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B596" s="1" t="n">
         <v>37000</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B596" s="0" t="n">
+    <row r="597" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B597" s="1" t="n">
         <v>36500</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B597" s="0" t="n">
+    <row r="598" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B598" s="1" t="n">
         <v>28500</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B598" s="0" t="n">
+    <row r="599" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B599" s="1" t="n">
         <v>29700</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B599" s="0" t="n">
+    <row r="600" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B600" s="1" t="n">
         <v>28500</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B600" s="0" t="n">
+    <row r="601" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B601" s="1" t="n">
         <v>44000</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B601" s="0" t="n">
+    <row r="602" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B602" s="1" t="n">
         <v>42000</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B602" s="0" t="n">
+    <row r="603" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B603" s="1" t="n">
         <v>43000</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B603" s="0" t="n">
+    <row r="604" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B604" s="1" t="n">
         <v>76000</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B604" s="0" t="n">
+    <row r="605" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B605" s="1" t="n">
         <v>85000</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B605" s="0" t="n">
+    <row r="606" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B606" s="1" t="n">
         <v>88500</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B606" s="0" t="n">
+    <row r="607" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B607" s="1" t="n">
         <v>95000</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B607" s="0" t="n">
+    <row r="608" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B608" s="1" t="n">
         <v>73800</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B608" s="0" t="n">
+    <row r="609" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B609" s="1" t="n">
         <v>73800</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B609" s="0" t="n">
+    <row r="610" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B610" s="1" t="n">
         <v>93500</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B610" s="0" t="n">
+    <row r="611" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B611" s="1" t="n">
         <v>96000</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B611" s="0" t="n">
+    <row r="612" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B612" s="1" t="n">
         <v>113000</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B614" s="0" t="n">
+    </row>
+    <row r="615" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B615" s="1" t="n">
         <v>79000</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B615" s="0" t="n">
+    <row r="616" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B616" s="1" t="n">
         <v>70500</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B616" s="0" t="n">
+    <row r="617" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B617" s="1" t="n">
         <v>70500</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B617" s="0" t="n">
+    <row r="618" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B618" s="1" t="n">
         <v>70500</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B618" s="0" t="n">
+    <row r="619" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B619" s="1" t="n">
         <v>70500</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B619" s="0" t="n">
+    <row r="620" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B620" s="1" t="n">
         <v>84000</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B620" s="0" t="n">
+    <row r="621" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B621" s="1" t="n">
         <v>84000</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B621" s="0" t="n">
+    <row r="622" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B622" s="1" t="n">
         <v>86000</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B622" s="0" t="n">
+    <row r="623" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B623" s="1" t="n">
         <v>86000</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B623" s="0" t="n">
+    <row r="624" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B624" s="1" t="n">
         <v>84500</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B624" s="0" t="n">
+    <row r="625" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B625" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B625" s="0" t="n">
+    <row r="626" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B626" s="1" t="n">
         <v>84000</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B626" s="0" t="n">
+    <row r="627" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B627" s="1" t="n">
         <v>84000</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B627" s="0" t="n">
+    <row r="628" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B628" s="1" t="n">
         <v>82000</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B628" s="0" t="n">
+    <row r="629" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B629" s="1" t="n">
         <v>115000</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B629" s="0" t="n">
+    <row r="630" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B630" s="1" t="n">
         <v>114000</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B630" s="0" t="n">
+    <row r="631" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B631" s="1" t="n">
         <v>116000</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B631" s="0" t="n">
+    <row r="632" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B632" s="1" t="n">
         <v>114000</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B632" s="0" t="n">
+    <row r="633" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B633" s="1" t="n">
         <v>153500</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B633" s="0" t="n">
+    <row r="634" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B634" s="1" t="n">
         <v>160000</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B634" s="0" t="n">
+    <row r="635" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B635" s="1" t="n">
         <v>135000</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B635" s="0" t="n">
+    <row r="636" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B636" s="1" t="n">
         <v>135000</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B636" s="0" t="n">
+    <row r="637" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B637" s="1" t="n">
         <v>185000</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B637" s="0" t="n">
+    <row r="638" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B638" s="1" t="n">
         <v>136500</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B638" s="0" t="n">
+    <row r="639" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B639" s="1" t="n">
         <v>132000</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B639" s="0" t="n">
+    <row r="640" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B640" s="1" t="n">
         <v>132000</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B640" s="0" t="n">
+    <row r="641" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B641" s="1" t="n">
         <v>157500</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B641" s="0" t="n">
+    <row r="642" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B642" s="1" t="n">
         <v>157500</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B642" s="0" t="n">
+    <row r="643" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B643" s="1" t="n">
         <v>135000</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="3"/>
-    </row>
     <row r="644" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="2" t="s">
-        <v>541</v>
-      </c>
+      <c r="A644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B645" s="0" t="n">
+    </row>
+    <row r="646" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B646" s="1" t="n">
         <v>29400</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B646" s="0" t="n">
+    <row r="647" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B647" s="1" t="n">
         <v>28900</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B647" s="0" t="n">
+    <row r="648" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B648" s="1" t="n">
         <v>26200</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B648" s="0" t="n">
+    <row r="649" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B649" s="1" t="n">
         <v>26500</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B649" s="0" t="n">
+    <row r="650" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B650" s="1" t="n">
         <v>25900</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A650" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B650" s="0" t="n">
+    <row r="651" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B651" s="1" t="n">
         <v>25200</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B651" s="0" t="n">
+    <row r="652" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B652" s="1" t="n">
         <v>28700</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B652" s="0" t="n">
+    <row r="653" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B653" s="1" t="n">
         <v>35000</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B653" s="0" t="n">
+    <row r="654" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B654" s="1" t="n">
         <v>35800</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B654" s="0" t="n">
+    <row r="655" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B655" s="1" t="n">
         <v>34000</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B655" s="0" t="n">
+    <row r="656" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B656" s="1" t="n">
         <v>32000</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B656" s="0" t="n">
+    <row r="657" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B657" s="1" t="n">
         <v>37500</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B657" s="0" t="n">
+    <row r="658" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B658" s="1" t="n">
         <v>38200</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B658" s="0" t="n">
+    <row r="659" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B659" s="1" t="n">
         <v>34000</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B659" s="0" t="n">
+    <row r="660" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B660" s="1" t="n">
         <v>53800</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B660" s="0" t="n">
+    <row r="661" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B661" s="1" t="n">
         <v>55500</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B661" s="0" t="n">
+    <row r="662" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B662" s="1" t="n">
         <v>45000</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B662" s="0" t="n">
+    <row r="663" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B663" s="1" t="n">
         <v>46500</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B663" s="0" t="n">
+    <row r="664" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B664" s="1" t="n">
         <v>45500</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B664" s="0" t="n">
+    <row r="665" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B665" s="1" t="n">
         <v>47500</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A665" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B665" s="0" t="n">
+    <row r="666" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B666" s="1" t="n">
         <v>45000</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B666" s="0" t="n">
+    <row r="667" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B667" s="1" t="n">
         <v>48500</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B667" s="0" t="n">
+    <row r="668" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B668" s="1" t="n">
         <v>34500</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B668" s="0" t="n">
+    <row r="669" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B669" s="1" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="3"/>
-    </row>
     <row r="670" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="A670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B671" s="0" t="n">
+    </row>
+    <row r="672" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B672" s="1" t="n">
         <v>23200</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B672" s="0" t="n">
+    <row r="673" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B673" s="1" t="n">
         <v>23800</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B673" s="0" t="n">
+    <row r="674" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B674" s="1" t="n">
         <v>27400</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B674" s="0" t="n">
+    <row r="675" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B675" s="1" t="n">
         <v>25800</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B675" s="0" t="n">
+    <row r="676" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B676" s="1" t="n">
         <v>23000</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B676" s="0" t="n">
+    <row r="677" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B677" s="1" t="n">
         <v>23800</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B677" s="0" t="n">
+    <row r="678" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B678" s="1" t="n">
         <v>30300</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B678" s="0" t="n">
+    <row r="679" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B679" s="1" t="n">
         <v>28600</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A679" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B679" s="0" t="n">
+    <row r="680" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A680" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B680" s="1" t="n">
         <v>28600</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B680" s="0" t="n">
+    <row r="681" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B681" s="1" t="n">
         <v>28600</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B681" s="0" t="n">
+    <row r="682" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B682" s="1" t="n">
         <v>27700</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B682" s="0" t="n">
+    <row r="683" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B683" s="1" t="n">
         <v>21000</v>
       </c>
     </row>

--- a/01Все товары (2).xlsx
+++ b/01Все товары (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="581">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -1646,6 +1646,9 @@
   </si>
   <si>
     <t xml:space="preserve">MacBook MW2X3 Pro 14 Silver (M4, 16GB, 1TB) 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyson </t>
   </si>
   <si>
     <t xml:space="preserve">Dyson HT / HS</t>
@@ -1961,10 +1964,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B685"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A233" activeCellId="0" sqref="A233"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A661" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A670" activeCellId="0" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,12 +3554,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>205</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>206</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>207</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>64100</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>208</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>209</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>210</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>211</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>65200</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>212</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
         <v>213</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>66800</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>214</v>
       </c>
@@ -3636,12 +3640,13 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
         <v>216</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>217</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>218</v>
       </c>
@@ -3665,12 +3670,13 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
         <v>220</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
         <v>221</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
         <v>222</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>223</v>
       </c>
@@ -3702,12 +3708,13 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>225</v>
       </c>
@@ -3715,12 +3722,13 @@
         <v>83200</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>227</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>228</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>96200</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
         <v>229</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
         <v>230</v>
       </c>
@@ -6252,303 +6260,311 @@
       <c r="A644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="3" t="s">
+      <c r="A645" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="4" t="s">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B646" s="1" t="n">
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B647" s="1" t="n">
-        <v>28900</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B648" s="1" t="n">
-        <v>26200</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B649" s="1" t="n">
-        <v>26500</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B650" s="1" t="n">
-        <v>25900</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A651" s="4" t="s">
-        <v>548</v>
-      </c>
       <c r="B651" s="1" t="n">
-        <v>25200</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B652" s="1" t="n">
-        <v>28700</v>
-      </c>
-    </row>
-    <row r="653" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="B653" s="1" t="n">
-        <v>35000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B654" s="1" t="n">
-        <v>35800</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B655" s="1" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B656" s="1" t="n">
-        <v>32000</v>
+        <v>35800</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B657" s="1" t="n">
-        <v>37500</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B658" s="1" t="n">
-        <v>38200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B659" s="1" t="n">
-        <v>34000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B660" s="1" t="n">
-        <v>53800</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B661" s="1" t="n">
-        <v>55500</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B662" s="1" t="n">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="4" t="s">
-        <v>560</v>
-      </c>
       <c r="B663" s="1" t="n">
-        <v>46500</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B664" s="1" t="n">
+      <c r="B665" s="1" t="n">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B666" s="1" t="n">
         <v>45500</v>
-      </c>
-    </row>
-    <row r="665" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="B665" s="1" t="n">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A666" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B666" s="1" t="n">
-        <v>45000</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B667" s="1" t="n">
-        <v>48500</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="4" t="s">
-        <v>565</v>
-      </c>
       <c r="B668" s="1" t="n">
-        <v>34500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B669" s="1" t="n">
+      <c r="B670" s="1" t="n">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B671" s="1" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="4"/>
-    </row>
-    <row r="671" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
     <row r="672" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="4" t="s">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="B672" s="1" t="n">
-        <v>23200</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B673" s="1" t="n">
-        <v>23800</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B674" s="1" t="n">
-        <v>27400</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B675" s="1" t="n">
-        <v>25800</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B676" s="1" t="n">
-        <v>23000</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B677" s="1" t="n">
-        <v>23800</v>
+        <v>25800</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B678" s="1" t="n">
-        <v>30300</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B679" s="1" t="n">
-        <v>28600</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A680" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="B680" s="1" t="n">
-        <v>28600</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>28600</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B682" s="1" t="n">
-        <v>27700</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B683" s="1" t="n">
+      <c r="B684" s="1" t="n">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B685" s="1" t="n">
         <v>21000</v>
       </c>
     </row>
